--- a/wdsi2/floor.xlsx
+++ b/wdsi2/floor.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -546,13 +546,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -568,19 +568,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -596,15 +596,65 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
